--- a/Список задач.xlsx
+++ b/Список задач.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B7130F-D465-45C5-A1AB-31DB8AB3DD12}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4120EC77-C372-42E2-B2D5-D1014078ECC7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="60">
   <si>
     <t>№</t>
   </si>
@@ -207,7 +207,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,6 +224,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -340,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -387,6 +394,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -670,7 +683,7 @@
   <dimension ref="B1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,7 +737,7 @@
       </c>
       <c r="G3" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -747,26 +760,28 @@
       </c>
       <c r="G4" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="19">
         <v>5</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="19">
         <v>10</v>
       </c>
-      <c r="G5" s="9"/>
+      <c r="G5" s="9">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">

--- a/Список задач.xlsx
+++ b/Список задач.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4120EC77-C372-42E2-B2D5-D1014078ECC7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12EDE0CF-1CB1-4E57-B8A9-9570499B2DBD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -374,9 +374,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -398,6 +395,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -683,7 +683,7 @@
   <dimension ref="B1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -737,7 +737,7 @@
       </c>
       <c r="G3" s="5">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -760,23 +760,23 @@
       </c>
       <c r="G4" s="7">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="18">
         <v>5</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="18">
         <v>10</v>
       </c>
       <c r="G5" s="9">
@@ -784,40 +784,42 @@
       </c>
     </row>
     <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="18">
         <v>20</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="18">
         <v>35</v>
       </c>
-      <c r="G6" s="9"/>
+      <c r="G6" s="9">
+        <v>18</v>
+      </c>
     </row>
     <row r="7" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="12">
         <v>15</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="12">
         <v>30</v>
       </c>
-      <c r="G7" s="13"/>
+      <c r="G7" s="12"/>
     </row>
     <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="8" t="s">
@@ -897,24 +899,24 @@
       <c r="G11" s="9"/>
     </row>
     <row r="12" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="14">
         <f>SUM(E13:E20)</f>
         <v>100</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="14">
         <f t="shared" ref="F12:G12" si="3">SUM(F13:F20)</f>
         <v>175</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -937,7 +939,7 @@
       </c>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="2:7" s="11" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" s="10" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>10</v>
       </c>
@@ -955,7 +957,7 @@
       </c>
       <c r="G14" s="9"/>
     </row>
-    <row r="15" spans="2:7" s="11" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7" s="10" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
         <v>37</v>
       </c>
@@ -1087,204 +1089,204 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="15" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Список задач.xlsx
+++ b/Список задач.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12EDE0CF-1CB1-4E57-B8A9-9570499B2DBD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D9F3A08-F2C6-4EAA-BC0D-F3AE0214DEDF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
   <si>
     <t>№</t>
   </si>
@@ -347,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -377,9 +377,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -398,6 +395,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -683,7 +686,7 @@
   <dimension ref="B1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -737,7 +740,7 @@
       </c>
       <c r="G3" s="5">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -760,23 +763,23 @@
       </c>
       <c r="G4" s="7">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="17">
         <v>5</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="17">
         <v>10</v>
       </c>
       <c r="G5" s="9">
@@ -784,19 +787,19 @@
       </c>
     </row>
     <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="17">
         <v>20</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="17">
         <v>35</v>
       </c>
       <c r="G6" s="9">
@@ -804,22 +807,24 @@
       </c>
     </row>
     <row r="7" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="20">
         <v>15</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="20">
         <v>30</v>
       </c>
-      <c r="G7" s="12"/>
+      <c r="G7" s="11">
+        <v>42</v>
+      </c>
     </row>
     <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="8" t="s">
@@ -899,24 +904,24 @@
       <c r="G11" s="9"/>
     </row>
     <row r="12" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="13">
         <f>SUM(E13:E20)</f>
         <v>100</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="13">
         <f t="shared" ref="F12:G12" si="3">SUM(F13:F20)</f>
         <v>175</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -1089,204 +1094,204 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Список задач.xlsx
+++ b/Список задач.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D9F3A08-F2C6-4EAA-BC0D-F3AE0214DEDF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8BEBB3-71C1-4421-9D9A-C131FB9E53CB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -686,7 +686,7 @@
   <dimension ref="B1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,7 +740,7 @@
       </c>
       <c r="G3" s="5">
         <f t="shared" si="0"/>
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -763,7 +763,7 @@
       </c>
       <c r="G4" s="7">
         <f t="shared" si="1"/>
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -827,22 +827,24 @@
       </c>
     </row>
     <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="17">
         <v>5</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="17">
         <v>10</v>
       </c>
-      <c r="G8" s="9"/>
+      <c r="G8" s="9">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">

--- a/Список задач.xlsx
+++ b/Список задач.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8BEBB3-71C1-4421-9D9A-C131FB9E53CB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36301D20-D6E9-48D7-AF3F-C773F006CA00}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -686,7 +686,7 @@
   <dimension ref="B1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,7 +740,7 @@
       </c>
       <c r="G3" s="5">
         <f t="shared" si="0"/>
-        <v>83</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -884,26 +884,28 @@
       </c>
       <c r="G10" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="17">
         <v>30</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="17">
         <v>60</v>
       </c>
-      <c r="G11" s="9"/>
+      <c r="G11" s="9">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">

--- a/Список задач.xlsx
+++ b/Список задач.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36301D20-D6E9-48D7-AF3F-C773F006CA00}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D073B2F-0B95-4F41-B6B7-F59DA5B66A0A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -347,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -401,6 +401,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -686,7 +692,7 @@
   <dimension ref="B1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,7 +746,7 @@
       </c>
       <c r="G3" s="5">
         <f t="shared" si="0"/>
-        <v>103</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -763,7 +769,7 @@
       </c>
       <c r="G4" s="7">
         <f t="shared" si="1"/>
-        <v>83</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -847,38 +853,40 @@
       </c>
     </row>
     <row r="9" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="17">
         <v>30</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="17">
         <v>60</v>
       </c>
-      <c r="G9" s="9"/>
+      <c r="G9" s="9">
+        <v>22</v>
+      </c>
     </row>
     <row r="10" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="22">
         <f>SUM(E11)</f>
         <v>30</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="22">
         <f t="shared" ref="F10:G10" si="2">SUM(F11)</f>
         <v>60</v>
       </c>

--- a/Список задач.xlsx
+++ b/Список задач.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D073B2F-0B95-4F41-B6B7-F59DA5B66A0A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB7B2C4-C5B9-4B69-9EEB-E435B3C055E3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -207,7 +207,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,6 +231,13 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.34998626667073579"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -347,7 +354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -362,9 +369,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -403,10 +407,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -692,7 +696,7 @@
   <dimension ref="B1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -750,337 +754,337 @@
       </c>
     </row>
     <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="6">
+      <c r="B4" s="20">
         <v>1</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="21">
         <f>SUM(E5:E9)</f>
         <v>75</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="21">
         <f t="shared" ref="F4:G4" si="1">SUM(F5:F9)</f>
         <v>145</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="6">
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="16">
         <v>5</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="16">
         <v>10</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="8">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="16">
         <v>20</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="16">
         <v>35</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="8">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="19">
         <v>15</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="19">
         <v>30</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="10">
         <v>42</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="16">
         <v>5</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="16">
         <v>10</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="8">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="16">
         <v>30</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="16">
         <v>60</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="8">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="21">
         <f>SUM(E11)</f>
         <v>30</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="21">
         <f t="shared" ref="F10:G10" si="2">SUM(F11)</f>
         <v>60</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="6">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="16">
         <v>30</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="16">
         <v>60</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="8">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="12">
         <f>SUM(E13:E20)</f>
         <v>100</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="12">
         <f t="shared" ref="F12:G12" si="3">SUM(F13:F20)</f>
         <v>175</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="8">
         <v>15</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="8">
         <v>25</v>
       </c>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="2:7" s="10" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="8" t="s">
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="2:7" s="9" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="8">
         <v>15</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="8">
         <v>25</v>
       </c>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" spans="2:7" s="10" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="8" t="s">
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="2:7" s="9" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="8">
         <v>20</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="8">
         <v>30</v>
       </c>
-      <c r="G15" s="9"/>
+      <c r="G15" s="8"/>
     </row>
     <row r="16" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="8">
         <v>25</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="8">
         <v>45</v>
       </c>
-      <c r="G16" s="9"/>
+      <c r="G16" s="8"/>
     </row>
     <row r="17" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="8">
         <v>5</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="8">
         <v>10</v>
       </c>
-      <c r="G17" s="9"/>
+      <c r="G17" s="8"/>
     </row>
     <row r="18" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="8">
         <v>5</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="8">
         <v>10</v>
       </c>
-      <c r="G18" s="9"/>
+      <c r="G18" s="8"/>
     </row>
     <row r="19" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="8">
         <v>5</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="8">
         <v>10</v>
       </c>
-      <c r="G19" s="9"/>
+      <c r="G19" s="8"/>
     </row>
     <row r="20" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="8">
         <v>10</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="8">
         <v>20</v>
       </c>
-      <c r="G20" s="9"/>
+      <c r="G20" s="8"/>
     </row>
     <row r="21" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1106,204 +1110,204 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Список задач.xlsx
+++ b/Список задач.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB7B2C4-C5B9-4B69-9EEB-E435B3C055E3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FBC64FC-32A3-4315-968C-75CAD390B5E8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="60">
   <si>
     <t>№</t>
   </si>
@@ -696,7 +696,7 @@
   <dimension ref="B1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -750,7 +750,7 @@
       </c>
       <c r="G3" s="5">
         <f t="shared" si="0"/>
-        <v>125</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -939,26 +939,28 @@
       </c>
       <c r="G12" s="12">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="16">
         <v>15</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="16">
         <v>25</v>
       </c>
-      <c r="G13" s="8"/>
+      <c r="G13" s="8">
+        <v>25</v>
+      </c>
     </row>
     <row r="14" spans="2:7" s="9" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="7" t="s">
@@ -1091,7 +1093,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="B10" numberStoredAsText="1"/>
+    <ignoredError sqref="B10 B12" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/Список задач.xlsx
+++ b/Список задач.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FBC64FC-32A3-4315-968C-75CAD390B5E8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D12637C-9479-412C-A6F4-D16514DD66C9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
   <si>
     <t>№</t>
   </si>
@@ -696,7 +696,7 @@
   <dimension ref="B1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -750,7 +750,7 @@
       </c>
       <c r="G3" s="5">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -939,7 +939,7 @@
       </c>
       <c r="G12" s="12">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -963,22 +963,24 @@
       </c>
     </row>
     <row r="14" spans="2:7" s="9" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="16">
         <v>15</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="16">
         <v>25</v>
       </c>
-      <c r="G14" s="8"/>
+      <c r="G14" s="8">
+        <v>8</v>
+      </c>
     </row>
     <row r="15" spans="2:7" s="9" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="7" t="s">

--- a/Список задач.xlsx
+++ b/Список задач.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D12637C-9479-412C-A6F4-D16514DD66C9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{455DAB04-6571-4D7D-AF0F-A578A35E6D85}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="60">
   <si>
     <t>№</t>
   </si>
@@ -696,7 +696,7 @@
   <dimension ref="B1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -750,7 +750,7 @@
       </c>
       <c r="G3" s="5">
         <f t="shared" si="0"/>
-        <v>158</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -939,7 +939,7 @@
       </c>
       <c r="G12" s="12">
         <f t="shared" si="3"/>
-        <v>33</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -983,22 +983,24 @@
       </c>
     </row>
     <row r="15" spans="2:7" s="9" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="16">
         <v>20</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="16">
         <v>30</v>
       </c>
-      <c r="G15" s="8"/>
+      <c r="G15" s="8">
+        <v>21</v>
+      </c>
     </row>
     <row r="16" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="7" t="s">

--- a/Список задач.xlsx
+++ b/Список задач.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{455DAB04-6571-4D7D-AF0F-A578A35E6D85}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94F9CCF-7150-4609-82D3-878F173B9737}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="60">
   <si>
     <t>№</t>
   </si>
@@ -149,9 +149,6 @@
     <t>3.4</t>
   </si>
   <si>
-    <t>Команда, позволяющая создать новый аккаунт и заполнить его поля, как основные, так и дополнительные.</t>
-  </si>
-  <si>
     <t>3.5</t>
   </si>
   <si>
@@ -201,6 +198,9 @@
   </si>
   <si>
     <t>TheSphinx</t>
+  </si>
+  <si>
+    <t>Команда, позволяющая создать новый аккаунт.</t>
   </si>
 </sst>
 </file>
@@ -696,7 +696,7 @@
   <dimension ref="B1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B16" sqref="B16:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,7 +735,7 @@
     <row r="3" spans="2:7" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>11</v>
@@ -750,7 +750,7 @@
       </c>
       <c r="G3" s="5">
         <f t="shared" si="0"/>
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -804,7 +804,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6" s="16">
         <v>20</v>
@@ -824,7 +824,7 @@
         <v>16</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E7" s="19">
         <v>15</v>
@@ -939,7 +939,7 @@
       </c>
       <c r="G12" s="12">
         <f t="shared" si="3"/>
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -987,10 +987,10 @@
         <v>37</v>
       </c>
       <c r="C15" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="16" t="s">
         <v>57</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>58</v>
       </c>
       <c r="E15" s="16">
         <v>20</v>
@@ -1002,33 +1002,35 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="7" t="s">
+    <row r="16" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="8">
+      <c r="D16" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="16">
         <v>25</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="16">
         <v>45</v>
       </c>
-      <c r="G16" s="8"/>
+      <c r="G16" s="8">
+        <v>7</v>
+      </c>
     </row>
     <row r="17" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>44</v>
-      </c>
       <c r="D17" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E17" s="8">
         <v>5</v>
@@ -1040,13 +1042,13 @@
     </row>
     <row r="18" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="D18" s="8" t="s">
         <v>49</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>50</v>
       </c>
       <c r="E18" s="8">
         <v>5</v>
@@ -1058,13 +1060,13 @@
     </row>
     <row r="19" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="D19" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>53</v>
       </c>
       <c r="E19" s="8">
         <v>5</v>
@@ -1076,13 +1078,13 @@
     </row>
     <row r="20" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="D20" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>56</v>
       </c>
       <c r="E20" s="8">
         <v>10</v>

--- a/Список задач.xlsx
+++ b/Список задач.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94F9CCF-7150-4609-82D3-878F173B9737}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE26E5B-7D61-4215-957F-86F8FB0A726C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="60">
   <si>
     <t>№</t>
   </si>
@@ -696,7 +696,7 @@
   <dimension ref="B1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:F16"/>
+      <selection activeCell="B17" sqref="B17:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -750,7 +750,7 @@
       </c>
       <c r="G3" s="5">
         <f t="shared" si="0"/>
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -939,7 +939,7 @@
       </c>
       <c r="G12" s="12">
         <f t="shared" si="3"/>
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1023,22 +1023,24 @@
       </c>
     </row>
     <row r="17" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="16">
         <v>5</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="16">
         <v>10</v>
       </c>
-      <c r="G17" s="8"/>
+      <c r="G17" s="8">
+        <v>6</v>
+      </c>
     </row>
     <row r="18" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="7" t="s">

--- a/Список задач.xlsx
+++ b/Список задач.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE26E5B-7D61-4215-957F-86F8FB0A726C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E28C92-6184-4761-8FF5-AFAFFC009D1D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
   <si>
     <t>№</t>
   </si>
@@ -98,15 +98,9 @@
     <t>2</t>
   </si>
   <si>
-    <t>Модуль работы с ВК</t>
-  </si>
-  <si>
     <t>Модуль, содержащий ключевые модели и алгоритмы.</t>
   </si>
   <si>
-    <t>Модуль, позволяющий отправлять и загружать из группы ВК данные.</t>
-  </si>
-  <si>
     <t>Реализация сетевой логики</t>
   </si>
   <si>
@@ -201,6 +195,12 @@
   </si>
   <si>
     <t>Команда, позволяющая создать новый аккаунт.</t>
+  </si>
+  <si>
+    <t>Модуль работы с Яндекс.Диск'ом</t>
+  </si>
+  <si>
+    <t>Модуль, позволяющий отправлять и загружать на Яндекс.Диск.</t>
   </si>
 </sst>
 </file>
@@ -696,14 +696,14 @@
   <dimension ref="B1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:F17"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="28.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="95.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="1" customWidth="1"/>
@@ -735,7 +735,7 @@
     <row r="3" spans="2:7" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>11</v>
@@ -750,7 +750,7 @@
       </c>
       <c r="G3" s="5">
         <f t="shared" si="0"/>
-        <v>192</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -761,7 +761,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" s="21">
         <f>SUM(E5:E9)</f>
@@ -804,7 +804,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E6" s="16">
         <v>20</v>
@@ -824,7 +824,7 @@
         <v>16</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E7" s="19">
         <v>15</v>
@@ -876,15 +876,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="20" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="E10" s="21">
         <f>SUM(E11)</f>
@@ -904,10 +904,10 @@
         <v>8</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E11" s="16">
         <v>30</v>
@@ -921,13 +921,13 @@
     </row>
     <row r="12" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>29</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>31</v>
       </c>
       <c r="E12" s="12">
         <f>SUM(E13:E20)</f>
@@ -939,7 +939,7 @@
       </c>
       <c r="G12" s="12">
         <f t="shared" si="3"/>
-        <v>67</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -947,10 +947,10 @@
         <v>9</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E13" s="16">
         <v>15</v>
@@ -967,10 +967,10 @@
         <v>10</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E14" s="16">
         <v>15</v>
@@ -984,13 +984,13 @@
     </row>
     <row r="15" spans="2:7" s="9" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E15" s="16">
         <v>20</v>
@@ -1004,13 +1004,13 @@
     </row>
     <row r="16" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E16" s="16">
         <v>25</v>
@@ -1024,13 +1024,13 @@
     </row>
     <row r="17" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="16" t="s">
         <v>43</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>45</v>
       </c>
       <c r="E17" s="16">
         <v>5</v>
@@ -1043,32 +1043,34 @@
       </c>
     </row>
     <row r="18" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="8">
+      <c r="E18" s="16">
         <v>5</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="16">
         <v>10</v>
       </c>
-      <c r="G18" s="8"/>
+      <c r="G18" s="8">
+        <v>17</v>
+      </c>
     </row>
     <row r="19" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>50</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>52</v>
       </c>
       <c r="E19" s="8">
         <v>5</v>
@@ -1080,13 +1082,13 @@
     </row>
     <row r="20" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>53</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>55</v>
       </c>
       <c r="E20" s="8">
         <v>10</v>
@@ -1124,13 +1126,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">

--- a/Список задач.xlsx
+++ b/Список задач.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E28C92-6184-4761-8FF5-AFAFFC009D1D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DEEED0C-8E7D-4799-929A-B8DFFDC593BA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="60">
   <si>
     <t>№</t>
   </si>
@@ -696,7 +696,7 @@
   <dimension ref="B1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -750,7 +750,7 @@
       </c>
       <c r="G3" s="5">
         <f t="shared" si="0"/>
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -939,7 +939,7 @@
       </c>
       <c r="G12" s="12">
         <f t="shared" si="3"/>
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1063,22 +1063,24 @@
       </c>
     </row>
     <row r="19" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="16">
         <v>5</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="16">
         <v>10</v>
       </c>
-      <c r="G19" s="8"/>
+      <c r="G19" s="8">
+        <v>5</v>
+      </c>
     </row>
     <row r="20" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="s">

--- a/Список задач.xlsx
+++ b/Список задач.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DEEED0C-8E7D-4799-929A-B8DFFDC593BA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3179CAE3-1593-4EBD-BF7E-33104A040131}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -372,9 +372,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -382,9 +379,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -411,6 +405,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -696,7 +696,7 @@
   <dimension ref="B1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -750,24 +750,24 @@
       </c>
       <c r="G3" s="5">
         <f t="shared" si="0"/>
-        <v>214</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="20">
+      <c r="B4" s="18">
         <v>1</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="19">
         <f>SUM(E5:E9)</f>
         <v>75</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="19">
         <f t="shared" ref="F4:G4" si="1">SUM(F5:F9)</f>
         <v>145</v>
       </c>
@@ -777,120 +777,120 @@
       </c>
     </row>
     <row r="5" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="14">
         <v>5</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="14">
         <v>10</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="7">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="14">
         <v>20</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="14">
         <v>35</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="7">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="17">
         <v>15</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="17">
         <v>30</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="9">
         <v>42</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="14">
         <v>5</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="14">
         <v>10</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="7">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="14">
         <v>30</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="14">
         <v>60</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="7">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="19">
         <f>SUM(E11)</f>
         <v>30</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="19">
         <f t="shared" ref="F10:G10" si="2">SUM(F11)</f>
         <v>60</v>
       </c>
@@ -900,205 +900,207 @@
       </c>
     </row>
     <row r="11" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="14">
         <v>30</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="14">
         <v>60</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="7">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="21">
         <f>SUM(E13:E20)</f>
         <v>100</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="21">
         <f t="shared" ref="F12:G12" si="3">SUM(F13:F20)</f>
         <v>175</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="10">
         <f t="shared" si="3"/>
-        <v>89</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="14">
         <v>15</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="14">
         <v>25</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="7">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="2:7" s="9" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="15" t="s">
+    <row r="14" spans="2:7" s="8" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="14">
         <v>15</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="14">
         <v>25</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="7">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="2:7" s="9" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="15" t="s">
+    <row r="15" spans="2:7" s="8" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="14">
         <v>20</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="14">
         <v>30</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="7">
         <v>21</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="14">
         <v>25</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F16" s="14">
         <v>45</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="7">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="14">
         <v>5</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F17" s="14">
         <v>10</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="14">
         <v>5</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="14">
         <v>10</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="7">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="14">
         <v>5</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F19" s="14">
         <v>10</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="14">
         <v>10</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="14">
         <v>20</v>
       </c>
-      <c r="G20" s="8"/>
+      <c r="G20" s="7">
+        <v>11</v>
+      </c>
     </row>
     <row r="21" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1124,204 +1126,204 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="11" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
